--- a/FrauEngine/ItemList.xlsx
+++ b/FrauEngine/ItemList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr dateCompatibility="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryose\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryose\Desktop\GitHub Repository\FrauEngine\FrauEngine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{5C48AA81-43F8-4D69-8FCB-B3C71B1AF382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{5B8819D4-98FC-429D-9448-78C53CF5C58C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="種リスト" sheetId="4" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="190" uniqueCount="106">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="191" uniqueCount="106">
   <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
@@ -1336,7 +1336,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D8"/>
+      <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1537,8 +1537,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44067989-CFD8-4F68-B7E6-BD8AC2DD4EAE}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2000</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
@@ -1642,13 +1642,13 @@
         <v>69</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>7000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>40000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
@@ -1708,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>50000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
@@ -1728,7 +1728,7 @@
         <v>30</v>
       </c>
       <c r="F9">
-        <v>500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
@@ -1802,7 +1802,7 @@
         <v>88</v>
       </c>
       <c r="D13">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1900,7 +1900,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DF48546-55B2-492B-8135-1D87644F6AE9}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
@@ -1915,7 +1915,7 @@
     <col min="5" max="5" width="7.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1925,8 +1925,11 @@
       <c r="C1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1936,8 +1939,11 @@
       <c r="C2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1947,8 +1953,11 @@
       <c r="C3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -1958,8 +1967,11 @@
       <c r="C4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1969,8 +1981,11 @@
       <c r="C5" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D5">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1980,8 +1995,11 @@
       <c r="C6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1991,8 +2009,11 @@
       <c r="C7" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D7">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2001,6 +2022,9 @@
       </c>
       <c r="C8" t="s">
         <v>66</v>
+      </c>
+      <c r="D8">
+        <v>50000</v>
       </c>
     </row>
   </sheetData>
@@ -2015,7 +2039,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
